--- a/SourceDataTables/FigS22b.xlsx
+++ b/SourceDataTables/FigS22b.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="8">
   <si>
     <t>Neuron_class</t>
   </si>
@@ -57,7 +57,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -67,14 +67,42 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -89,30 +117,30 @@
   <cols>
     <col min="1" max="1" width="13" customWidth="true"/>
     <col min="2" max="2" width="18" customWidth="true"/>
-    <col min="3" max="3" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="15.5703125" customWidth="true"/>
     <col min="4" max="4" width="19" customWidth="true"/>
     <col min="5" max="5" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -129,7 +157,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -146,7 +174,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -163,7 +191,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B5">
@@ -180,7 +208,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B6">
@@ -197,7 +225,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B7">
@@ -214,7 +242,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B8">
@@ -231,7 +259,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B9">
@@ -248,7 +276,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B10">
@@ -265,7 +293,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B11">
@@ -282,7 +310,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B12">
@@ -299,7 +327,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B13">
@@ -316,7 +344,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B14">
@@ -333,7 +361,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B15">
@@ -350,7 +378,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B16">
@@ -367,7 +395,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B17">
@@ -384,7 +412,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B18">
@@ -401,7 +429,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B19">
@@ -418,7 +446,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B20">
@@ -435,7 +463,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B21">
@@ -452,7 +480,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B22">

--- a/SourceDataTables/FigS22b.xlsx
+++ b/SourceDataTables/FigS22b.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="8">
   <si>
     <t>Neuron_class</t>
   </si>
@@ -57,7 +57,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -81,11 +81,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -103,6 +107,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -123,24 +131,24 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -157,7 +165,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -174,7 +182,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B4">
